--- a/Experimental Database.xlsx
+++ b/Experimental Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_Research\McGill\0_Diagonal tensile prediction\0_Python\current\Unify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4F25DE-C364-4395-9A26-279F0B5F7B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5345068-D72E-4120-B27A-FB65FD5937DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="4" r:id="rId1"/>
@@ -844,7 +844,7 @@
     <t>You are welcome to explore more of our work at struct-lab, McGill Universisty: https://www.struct-lab.com/</t>
   </si>
   <si>
-    <t>Please cite this paper when using this database: TBD</t>
+    <t xml:space="preserve">Please cite this paper when using this database: https://doi.org/10.1016/j.engfailanal.2025.110022 </t>
   </si>
 </sst>
 </file>
@@ -1247,6 +1247,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,25 +1286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1293,15 +1302,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,7 +1590,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,61 +1735,61 @@
     </row>
     <row r="6" spans="1:32" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="67" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="52"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="60"/>
       <c r="AF6" s="48"/>
     </row>
     <row r="7" spans="1:32" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="42" t="s">
         <v>1</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="62" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="12">
@@ -1967,7 +1967,7 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="3">
         <v>2</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="3">
         <v>3</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="3">
         <v>4</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="3">
         <v>5</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="3">
         <v>6</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="3">
         <v>7</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="3">
         <v>8</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="58" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2715,7 +2715,7 @@
       <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="A18" s="2">
         <v>11</v>
       </c>
-      <c r="B18" s="58"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="A19" s="2">
         <v>12</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="58" t="s">
         <v>129</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -3473,7 +3473,7 @@
       <c r="A25" s="2">
         <v>18</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="55" t="s">
         <v>187</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3568,7 +3568,7 @@
       <c r="A26" s="2">
         <v>19</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="A28" s="2">
         <v>21</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="3" t="s">
         <v>42</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="A29" s="2">
         <v>22</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="A30" s="2">
         <v>23</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="5" t="s">
         <v>44</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="A31" s="2">
         <v>24</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="55" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -4129,7 +4129,7 @@
       <c r="A32" s="2">
         <v>25</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="B33" s="62"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="3" t="s">
         <v>50</v>
       </c>
@@ -4315,7 +4315,7 @@
       <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="3" t="s">
         <v>51</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="A35" s="2">
         <v>28</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="3" t="s">
         <v>52</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="A36" s="2">
         <v>29</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="3" t="s">
         <v>53</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="A37" s="2">
         <v>30</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="3" t="s">
         <v>54</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="A38" s="2">
         <v>31</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="5" t="s">
         <v>55</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="A39" s="2">
         <v>32</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="55" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -4876,7 +4876,7 @@
       <c r="A40" s="2">
         <v>33</v>
       </c>
-      <c r="B40" s="62"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="3" t="s">
         <v>62</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="A41" s="2">
         <v>34</v>
       </c>
-      <c r="B41" s="62"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="3" t="s">
         <v>60</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="A42" s="2">
         <v>35</v>
       </c>
-      <c r="B42" s="62"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="3" t="s">
         <v>63</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="A43" s="2">
         <v>36</v>
       </c>
-      <c r="B43" s="62"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="3" t="s">
         <v>64</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="A44" s="2">
         <v>37</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="A45" s="2">
         <v>38</v>
       </c>
-      <c r="B45" s="62"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="3" t="s">
         <v>66</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="A46" s="2">
         <v>39</v>
       </c>
-      <c r="B46" s="63"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="5" t="s">
         <v>67</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="A47" s="2">
         <v>40</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="55" t="s">
         <v>131</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -5623,7 +5623,7 @@
       <c r="A48" s="2">
         <v>41</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="3" t="s">
         <v>69</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="A49" s="2">
         <v>42</v>
       </c>
-      <c r="B49" s="63"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="A50" s="2">
         <v>43</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="55" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -5906,7 +5906,7 @@
       <c r="A51" s="2">
         <v>44</v>
       </c>
-      <c r="B51" s="62"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="3" t="s">
         <v>73</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="A52" s="2">
         <v>45</v>
       </c>
-      <c r="B52" s="62"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="3" t="s">
         <v>74</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="A53" s="2">
         <v>46</v>
       </c>
-      <c r="B53" s="62"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="3" t="s">
         <v>75</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="A54" s="2">
         <v>47</v>
       </c>
-      <c r="B54" s="62"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="3" t="s">
         <v>76</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="A55" s="2">
         <v>48</v>
       </c>
-      <c r="B55" s="62"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="A56" s="2">
         <v>49</v>
       </c>
-      <c r="B56" s="62"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="A57" s="2">
         <v>50</v>
       </c>
-      <c r="B57" s="63"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="5" t="s">
         <v>79</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="A58" s="2">
         <v>51</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -6660,7 +6660,7 @@
       <c r="A59" s="2">
         <v>52</v>
       </c>
-      <c r="B59" s="69"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="3" t="s">
         <v>82</v>
       </c>
@@ -6753,7 +6753,7 @@
       <c r="A60" s="2">
         <v>53</v>
       </c>
-      <c r="B60" s="70"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="5" t="s">
         <v>83</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="A61" s="2">
         <v>54</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="55" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -6942,7 +6942,7 @@
       <c r="A62" s="2">
         <v>55</v>
       </c>
-      <c r="B62" s="62"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="3" t="s">
         <v>85</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="A63" s="2">
         <v>56</v>
       </c>
-      <c r="B63" s="62"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="3" t="s">
         <v>86</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="A64" s="2">
         <v>57</v>
       </c>
-      <c r="B64" s="63"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="5" t="s">
         <v>87</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="A65" s="2">
         <v>58</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="55" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -7317,7 +7317,7 @@
       <c r="A66" s="2">
         <v>59</v>
       </c>
-      <c r="B66" s="63"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="5" t="s">
         <v>90</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="A67" s="2">
         <v>60</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="55" t="s">
         <v>182</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -7507,7 +7507,7 @@
       <c r="A68" s="2">
         <v>61</v>
       </c>
-      <c r="B68" s="62"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="3" t="s">
         <v>92</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="A69" s="2">
         <v>62</v>
       </c>
-      <c r="B69" s="62"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="3" t="s">
         <v>93</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="A70" s="2">
         <v>63</v>
       </c>
-      <c r="B70" s="63"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="5" t="s">
         <v>94</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="A71" s="2">
         <v>64</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="55" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="24" t="s">
@@ -7886,7 +7886,7 @@
       <c r="A72" s="2">
         <v>65</v>
       </c>
-      <c r="B72" s="63"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="5" t="s">
         <v>28</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="A73" s="2">
         <v>66</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="55" t="s">
         <v>136</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -8076,7 +8076,7 @@
       <c r="A74" s="2">
         <v>67</v>
       </c>
-      <c r="B74" s="62"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="3" t="s">
         <v>99</v>
       </c>
@@ -8169,7 +8169,7 @@
       <c r="A75" s="2">
         <v>68</v>
       </c>
-      <c r="B75" s="62"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="3" t="s">
         <v>100</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="A76" s="2">
         <v>69</v>
       </c>
-      <c r="B76" s="62"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="3" t="s">
         <v>101</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="A77" s="2">
         <v>70</v>
       </c>
-      <c r="B77" s="62"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="A78" s="2">
         <v>71</v>
       </c>
-      <c r="B78" s="63"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="5" t="s">
         <v>103</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="A79" s="2">
         <v>72</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="55" t="s">
         <v>183</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -8637,7 +8637,7 @@
       <c r="A80" s="2">
         <v>73</v>
       </c>
-      <c r="B80" s="62"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="3" t="s">
         <v>106</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="A81" s="2">
         <v>74</v>
       </c>
-      <c r="B81" s="63"/>
+      <c r="B81" s="57"/>
       <c r="C81" s="5" t="s">
         <v>107</v>
       </c>
@@ -8824,7 +8824,7 @@
       <c r="A82" s="2">
         <v>75</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="58" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -9013,7 +9013,7 @@
       <c r="A84" s="2">
         <v>77</v>
       </c>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="55" t="s">
         <v>184</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -9108,7 +9108,7 @@
       <c r="A85" s="2">
         <v>78</v>
       </c>
-      <c r="B85" s="62"/>
+      <c r="B85" s="56"/>
       <c r="C85" s="3" t="s">
         <v>51</v>
       </c>
@@ -9201,7 +9201,7 @@
       <c r="A86" s="2">
         <v>79</v>
       </c>
-      <c r="B86" s="62"/>
+      <c r="B86" s="56"/>
       <c r="C86" s="3" t="s">
         <v>52</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="A87" s="2">
         <v>80</v>
       </c>
-      <c r="B87" s="62"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="3" t="s">
         <v>53</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="A89" s="2">
         <v>82</v>
       </c>
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="52" t="s">
         <v>112</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -9576,7 +9576,7 @@
       <c r="A90" s="2">
         <v>83</v>
       </c>
-      <c r="B90" s="70"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="5" t="s">
         <v>114</v>
       </c>
@@ -9670,7 +9670,7 @@
       <c r="A91" s="2">
         <v>84</v>
       </c>
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -9765,7 +9765,7 @@
       <c r="A92" s="2">
         <v>85</v>
       </c>
-      <c r="B92" s="69"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="3" t="s">
         <v>116</v>
       </c>
@@ -9858,7 +9858,7 @@
       <c r="A93" s="2">
         <v>86</v>
       </c>
-      <c r="B93" s="69"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="3" t="s">
         <v>117</v>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="A94" s="2">
         <v>87</v>
       </c>
-      <c r="B94" s="69"/>
+      <c r="B94" s="53"/>
       <c r="C94" s="3" t="s">
         <v>118</v>
       </c>
@@ -10044,7 +10044,7 @@
       <c r="A95" s="2">
         <v>88</v>
       </c>
-      <c r="B95" s="70"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="5" t="s">
         <v>119</v>
       </c>
@@ -10138,7 +10138,7 @@
       <c r="A96" s="2">
         <v>89</v>
       </c>
-      <c r="B96" s="68" t="s">
+      <c r="B96" s="52" t="s">
         <v>125</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -10235,7 +10235,7 @@
       <c r="A97" s="2">
         <v>90</v>
       </c>
-      <c r="B97" s="70"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="4" t="s">
         <v>122</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="A98" s="2">
         <v>91</v>
       </c>
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="52" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -10426,7 +10426,7 @@
       <c r="A99" s="2">
         <v>92</v>
       </c>
-      <c r="B99" s="69"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="3" t="s">
         <v>139</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="A100" s="2">
         <v>93</v>
       </c>
-      <c r="B100" s="69"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="3" t="s">
         <v>140</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="A101" s="2">
         <v>94</v>
       </c>
-      <c r="B101" s="69"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="3" t="s">
         <v>141</v>
       </c>
@@ -10705,7 +10705,7 @@
       <c r="A102" s="2">
         <v>95</v>
       </c>
-      <c r="B102" s="69"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="3" t="s">
         <v>142</v>
       </c>
@@ -10798,7 +10798,7 @@
       <c r="A103" s="2">
         <v>96</v>
       </c>
-      <c r="B103" s="70"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="5" t="s">
         <v>143</v>
       </c>
@@ -10892,7 +10892,7 @@
       <c r="A104" s="2">
         <v>97</v>
       </c>
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="52" t="s">
         <v>149</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -10987,7 +10987,7 @@
       <c r="A105" s="2">
         <v>98</v>
       </c>
-      <c r="B105" s="69"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="3" t="s">
         <v>147</v>
       </c>
@@ -11080,7 +11080,7 @@
       <c r="A106" s="2">
         <v>99</v>
       </c>
-      <c r="B106" s="70"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="5" t="s">
         <v>148</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="A107" s="2">
         <v>100</v>
       </c>
-      <c r="B107" s="68" t="s">
+      <c r="B107" s="52" t="s">
         <v>150</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -11269,7 +11269,7 @@
       <c r="A108" s="2">
         <v>101</v>
       </c>
-      <c r="B108" s="69"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="3" t="s">
         <v>152</v>
       </c>
@@ -11362,7 +11362,7 @@
       <c r="A109" s="2">
         <v>102</v>
       </c>
-      <c r="B109" s="70"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="5" t="s">
         <v>153</v>
       </c>
@@ -11552,7 +11552,7 @@
       <c r="A111" s="2">
         <v>104</v>
       </c>
-      <c r="B111" s="69" t="s">
+      <c r="B111" s="53" t="s">
         <v>156</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -11648,7 +11648,7 @@
       <c r="A112" s="2">
         <v>105</v>
       </c>
-      <c r="B112" s="70"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="5" t="s">
         <v>158</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="A113" s="2">
         <v>106</v>
       </c>
-      <c r="B113" s="68" t="s">
+      <c r="B113" s="52" t="s">
         <v>185</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -11839,7 +11839,7 @@
       <c r="A114" s="2">
         <v>107</v>
       </c>
-      <c r="B114" s="69"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="3" t="s">
         <v>166</v>
       </c>
@@ -11933,7 +11933,7 @@
       <c r="A115" s="2">
         <v>108</v>
       </c>
-      <c r="B115" s="69"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="3" t="s">
         <v>167</v>
       </c>
@@ -12027,7 +12027,7 @@
       <c r="A116" s="2">
         <v>109</v>
       </c>
-      <c r="B116" s="69"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="3" t="s">
         <v>168</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="A117" s="2">
         <v>110</v>
       </c>
-      <c r="B117" s="69"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="3" t="s">
         <v>169</v>
       </c>
@@ -12215,7 +12215,7 @@
       <c r="A118" s="2">
         <v>111</v>
       </c>
-      <c r="B118" s="69"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="3" t="s">
         <v>170</v>
       </c>
@@ -12309,7 +12309,7 @@
       <c r="A119" s="2">
         <v>112</v>
       </c>
-      <c r="B119" s="69"/>
+      <c r="B119" s="53"/>
       <c r="C119" s="3" t="s">
         <v>171</v>
       </c>
@@ -12403,7 +12403,7 @@
       <c r="A120" s="2">
         <v>113</v>
       </c>
-      <c r="B120" s="69"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="3" t="s">
         <v>172</v>
       </c>
@@ -12497,7 +12497,7 @@
       <c r="A121" s="2">
         <v>114</v>
       </c>
-      <c r="B121" s="70"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="5" t="s">
         <v>173</v>
       </c>
@@ -12592,7 +12592,7 @@
       <c r="A122" s="2">
         <v>115</v>
       </c>
-      <c r="B122" s="68" t="s">
+      <c r="B122" s="52" t="s">
         <v>177</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -12688,7 +12688,7 @@
       <c r="A123" s="2">
         <v>116</v>
       </c>
-      <c r="B123" s="70"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="5" t="s">
         <v>179</v>
       </c>
@@ -12787,25 +12787,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B58:B60"/>
     <mergeCell ref="U6:AE6"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="B16:B20"/>
@@ -12821,6 +12802,25 @@
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B121"/>
+    <mergeCell ref="B122:B123"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
